--- a/sum_tabs.xlsx
+++ b/sum_tabs.xlsx
@@ -1,22 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\NBR\80. PhD\699 Side Projects\699.01_Beet_Size\clone\6991_Beet_surface_area\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
-    <sheet name="skador" sheetId="2" r:id="rId2"/>
+    <sheet name="models_by_size" sheetId="2" r:id="rId2"/>
+    <sheet name="skador_by_size" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+  <si>
+    <t>sa_m1</t>
+  </si>
+  <si>
+    <t>sa_m2</t>
+  </si>
+  <si>
+    <t>sa_m3</t>
+  </si>
+  <si>
+    <t>sa_m4</t>
+  </si>
+  <si>
+    <t>sa_m5</t>
+  </si>
+  <si>
+    <t>wei</t>
+  </si>
+  <si>
+    <t>sa_wei</t>
+  </si>
+  <si>
+    <t>r_s_l</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>yta_sa</t>
+  </si>
+  <si>
+    <t>beets/m3</t>
+  </si>
+  <si>
+    <t>kg/beet</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>cm2/beet</t>
+  </si>
+  <si>
+    <t>m2/beet</t>
+  </si>
+  <si>
+    <t>m2/m3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +129,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -110,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,142 +426,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>r_s_l</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sa_m1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sa_m2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sa_m3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sa_m4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sa_m5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>wei</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sa_wei</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>yta_sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>641.87597384752303</v>
       </c>
       <c r="B2">
-        <v>923.3523403135941</v>
+        <v>636.25077207784318</v>
       </c>
       <c r="C2">
-        <v>914.7109821273307</v>
+        <v>649.35736959925828</v>
       </c>
       <c r="D2">
-        <v>935.4087851107527</v>
+        <v>649.17619593892198</v>
       </c>
       <c r="E2">
-        <v>933.9752039945018</v>
+        <v>641.09734945260061</v>
       </c>
       <c r="F2">
-        <v>919.248044497457</v>
+        <v>1511.7333333333329</v>
       </c>
       <c r="G2">
-        <v>2498.823529411765</v>
-      </c>
-      <c r="H2">
-        <v>0.3695148254550635</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>627.4779830822502</v>
-      </c>
-      <c r="C3">
-        <v>622.1097832063391</v>
-      </c>
-      <c r="D3">
-        <v>634.2549361546079</v>
-      </c>
-      <c r="E3">
-        <v>633.2376310623833</v>
-      </c>
-      <c r="F3">
-        <v>627.9893326344209</v>
-      </c>
-      <c r="G3">
-        <v>1418.962264150943</v>
-      </c>
-      <c r="H3">
-        <v>0.4422090699203412</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>374.9940662933727</v>
-      </c>
-      <c r="C4">
-        <v>372.063659002302</v>
-      </c>
-      <c r="D4">
-        <v>378.8931527863993</v>
-      </c>
-      <c r="E4">
-        <v>381.3452160773107</v>
-      </c>
-      <c r="F4">
-        <v>373.0087341037281</v>
-      </c>
-      <c r="G4">
-        <v>643.7272727272728</v>
-      </c>
-      <c r="H4">
-        <v>0.5825356205658946</v>
+        <v>0.42459603138617241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1.512</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>B6/B5</f>
+        <v>462.96296296296293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>642</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>B7*B9</f>
+        <v>29.722222222222218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -495,53 +537,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>923.35234031359414</v>
+      </c>
+      <c r="C2">
+        <v>914.71098212733068</v>
+      </c>
+      <c r="D2">
+        <v>935.40878511075266</v>
+      </c>
+      <c r="E2">
+        <v>933.97520399450184</v>
+      </c>
+      <c r="F2">
+        <v>921.58076459274605</v>
+      </c>
+      <c r="G2">
+        <v>2498.8235294117649</v>
+      </c>
+      <c r="H2">
+        <v>0.36951482545506348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>627.47798308225015</v>
+      </c>
+      <c r="C3">
+        <v>622.1097832063391</v>
+      </c>
+      <c r="D3">
+        <v>634.25493615460789</v>
+      </c>
+      <c r="E3">
+        <v>633.23763106238334</v>
+      </c>
+      <c r="F3">
+        <v>627.50217739239451</v>
+      </c>
+      <c r="G3">
+        <v>1418.9622641509429</v>
+      </c>
+      <c r="H3">
+        <v>0.4422090699203412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>374.99406629337273</v>
+      </c>
+      <c r="C4">
+        <v>372.06365900230202</v>
+      </c>
+      <c r="D4">
+        <v>378.8931527863993</v>
+      </c>
+      <c r="E4">
+        <v>381.34521607731068</v>
+      </c>
+      <c r="F4">
+        <v>373.94910716247892</v>
+      </c>
+      <c r="G4">
+        <v>643.72727272727275</v>
+      </c>
+      <c r="H4">
+        <v>0.58253562056589459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>r_s_l</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>yta_sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.03642893301518484</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
+        <v>3.6428933015184843E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02963599776760545</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
+        <v>2.9635997767605449E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01374738230957316</v>
+        <v>1.3747382309573159E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sum_tabs.xlsx
+++ b/sum_tabs.xlsx
@@ -1,87 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\NBR\80. PhD\699 Side Projects\699.01_Beet_Size\clone\6991_Beet_surface_area\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="models_by_size" sheetId="2" r:id="rId2"/>
     <sheet name="skador_by_size" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
-  <si>
-    <t>sa_m1</t>
-  </si>
-  <si>
-    <t>sa_m2</t>
-  </si>
-  <si>
-    <t>sa_m3</t>
-  </si>
-  <si>
-    <t>sa_m4</t>
-  </si>
-  <si>
-    <t>sa_m5</t>
-  </si>
-  <si>
-    <t>wei</t>
-  </si>
-  <si>
-    <t>sa_wei</t>
-  </si>
-  <si>
-    <t>r_s_l</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>yta_sa</t>
-  </si>
-  <si>
-    <t>beets/m3</t>
-  </si>
-  <si>
-    <t>kg/beet</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>cm2/beet</t>
-  </si>
-  <si>
-    <t>m2/beet</t>
-  </si>
-  <si>
-    <t>m2/m3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +65,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,10 +143,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,109 +352,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>wei</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sa_wei</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>yz_x0_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>641.87597384752303</v>
+        <v>646.1240982770898</v>
       </c>
       <c r="B2">
-        <v>636.25077207784318</v>
+        <v>639.8863398832239</v>
       </c>
       <c r="C2">
-        <v>649.35736959925828</v>
+        <v>653.4594182904908</v>
       </c>
       <c r="D2">
-        <v>649.17619593892198</v>
+        <v>654.8605872976286</v>
       </c>
       <c r="E2">
-        <v>641.09734945260061</v>
+        <v>644.6434401787973</v>
       </c>
       <c r="F2">
-        <v>1511.7333333333329</v>
+        <v>1509.310144927536</v>
       </c>
       <c r="G2">
-        <v>0.42459603138617241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>1.512</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>700</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <f>B6/B5</f>
-        <v>462.96296296296293</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>642</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <f>B7*B9</f>
-        <v>29.722222222222218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>0.4280923310881947</v>
+      </c>
+      <c r="H2">
+        <v>6.138405797101449</v>
       </c>
     </row>
   </sheetData>
@@ -537,115 +433,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>r_s_l</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sa_m5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>wei</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sa_wei</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yz_x0_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
       </c>
       <c r="B2">
-        <v>923.35234031359414</v>
+        <v>955.2836779508705</v>
       </c>
       <c r="C2">
-        <v>914.71098212733068</v>
+        <v>947.6132124228856</v>
       </c>
       <c r="D2">
-        <v>935.40878511075266</v>
+        <v>966.6543147464247</v>
       </c>
       <c r="E2">
-        <v>933.97520399450184</v>
+        <v>966.6100483601013</v>
       </c>
       <c r="F2">
-        <v>921.58076459274605</v>
+        <v>954.7983480090464</v>
       </c>
       <c r="G2">
-        <v>2498.8235294117649</v>
+        <v>2649.810126582278</v>
       </c>
       <c r="H2">
-        <v>0.36951482545506348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>0.3605102374572755</v>
+      </c>
+      <c r="I2">
+        <v>7.822784810126582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
       </c>
       <c r="B3">
-        <v>627.47798308225015</v>
+        <v>629.4700519918438</v>
       </c>
       <c r="C3">
-        <v>622.1097832063391</v>
+        <v>625.030275019308</v>
       </c>
       <c r="D3">
-        <v>634.25493615460789</v>
+        <v>637.7561733268608</v>
       </c>
       <c r="E3">
-        <v>633.23763106238334</v>
+        <v>639.8620774918646</v>
       </c>
       <c r="F3">
-        <v>627.50217739239451</v>
+        <v>628.3948443217684</v>
       </c>
       <c r="G3">
-        <v>1418.9622641509429</v>
+        <v>1390.494680851064</v>
       </c>
       <c r="H3">
-        <v>0.4422090699203412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>0.4526950449077385</v>
+      </c>
+      <c r="I3">
+        <v>6.057845744680851</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
       </c>
       <c r="B4">
-        <v>374.99406629337273</v>
+        <v>373.1414560642386</v>
       </c>
       <c r="C4">
-        <v>372.06365900230202</v>
+        <v>364.0211765983895</v>
       </c>
       <c r="D4">
-        <v>378.8931527863993</v>
+        <v>374.0980494846402</v>
       </c>
       <c r="E4">
-        <v>381.34521607731068</v>
+        <v>375.2645926764529</v>
       </c>
       <c r="F4">
-        <v>373.94910716247892</v>
+        <v>369.6754696984351</v>
       </c>
       <c r="G4">
-        <v>643.72727272727275</v>
+        <v>640.5641025641025</v>
       </c>
       <c r="H4">
-        <v>0.58253562056589459</v>
+        <v>0.5825200859220762</v>
+      </c>
+      <c r="I4">
+        <v>4.626602564102564</v>
       </c>
     </row>
   </sheetData>
@@ -654,43 +586,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>r_s_l</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>yta_sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
       </c>
       <c r="B2">
-        <v>3.6428933015184843E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>0.0123400752460961</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
       </c>
       <c r="B3">
-        <v>2.9635997767605449E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>0.007138225583545138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
       </c>
       <c r="B4">
-        <v>1.3747382309573159E-2</v>
+        <v>0.006403569318442341</v>
       </c>
     </row>
   </sheetData>
